--- a/biology/Médecine/Prospero_Postiglione/Prospero_Postiglione.xlsx
+++ b/biology/Médecine/Prospero_Postiglione/Prospero_Postiglione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prospero Postiglione est un médecin italien, né en 1776 à Pignola, dans la Basilicate (royaume des Deux-Siciles), mort à Naples le 11 février 1841.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Destiné à l’état ecclésiastique, il fut d’abord élevé dans le séminaire de Potenza. Après avoir reçu les ordres et enseigné pendant quelques années la philosophie, il commença à Naples l’étude de la médecine, qu’il acheva ensuite aux universités de Pavie et de Padoue. De retour à Naples il obtint, vers 1811, la chaire de clinique et de matière médicale, qu’il a conservée jusqu’à sa mort. Avec Vincenzo Lanza et Benedetto Vulpes, Postiglione a été un des restaurateurs de la méthode d’Hippocrate, qui avait été longtemps négligée pour le brownisme. En même temps il a fondé la clinique médicale à Naples.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre divers écrits philosophiques, il a publié les ouvrages suivants de médecine :
 Sur la fièvre pétéchiale, Naples, 1816 ;
